--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>583.970996420368</v>
+        <v>2.063913333333333</v>
       </c>
       <c r="H2">
-        <v>583.970996420368</v>
+        <v>6.19174</v>
       </c>
       <c r="I2">
-        <v>0.9616513305125719</v>
+        <v>0.003360194407478493</v>
       </c>
       <c r="J2">
-        <v>0.9616513305125719</v>
+        <v>0.003360194407478493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>113.084397535735</v>
+        <v>1.081988</v>
       </c>
       <c r="N2">
-        <v>113.084397535735</v>
+        <v>3.245964</v>
       </c>
       <c r="O2">
-        <v>0.8799234498292954</v>
+        <v>0.008303622335279906</v>
       </c>
       <c r="P2">
-        <v>0.8799234498292954</v>
+        <v>0.008303622335279906</v>
       </c>
       <c r="Q2">
-        <v>66038.00830854017</v>
+        <v>2.233129459706666</v>
       </c>
       <c r="R2">
-        <v>66038.00830854017</v>
+        <v>20.09816513736</v>
       </c>
       <c r="S2">
-        <v>0.8461795562775543</v>
+        <v>2.790178533282104E-05</v>
       </c>
       <c r="T2">
-        <v>0.8461795562775543</v>
+        <v>2.790178533282104E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>583.970996420368</v>
+        <v>2.063913333333333</v>
       </c>
       <c r="H3">
-        <v>583.970996420368</v>
+        <v>6.19174</v>
       </c>
       <c r="I3">
-        <v>0.9616513305125719</v>
+        <v>0.003360194407478493</v>
       </c>
       <c r="J3">
-        <v>0.9616513305125719</v>
+        <v>0.003360194407478493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.4317791358531</v>
+        <v>113.3348083333333</v>
       </c>
       <c r="N3">
-        <v>15.4317791358531</v>
+        <v>340.004425</v>
       </c>
       <c r="O3">
-        <v>0.1200765501707047</v>
+        <v>0.8697780805714425</v>
       </c>
       <c r="P3">
-        <v>0.1200765501707047</v>
+        <v>0.8697780805714423</v>
       </c>
       <c r="Q3">
-        <v>9011.71143850318</v>
+        <v>233.9132220499444</v>
       </c>
       <c r="R3">
-        <v>9011.71143850318</v>
+        <v>2105.2189984495</v>
       </c>
       <c r="S3">
-        <v>0.1154717742350178</v>
+        <v>0.002922623442083539</v>
       </c>
       <c r="T3">
-        <v>0.1154717742350178</v>
+        <v>0.002922623442083538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>23.2875575808045</v>
+        <v>2.063913333333333</v>
       </c>
       <c r="H4">
-        <v>23.2875575808045</v>
+        <v>6.19174</v>
       </c>
       <c r="I4">
-        <v>0.03834866948742815</v>
+        <v>0.003360194407478493</v>
       </c>
       <c r="J4">
-        <v>0.03834866948742815</v>
+        <v>0.003360194407478493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>113.084397535735</v>
+        <v>15.886336</v>
       </c>
       <c r="N4">
-        <v>113.084397535735</v>
+        <v>47.659008</v>
       </c>
       <c r="O4">
-        <v>0.8799234498292954</v>
+        <v>0.1219182970932776</v>
       </c>
       <c r="P4">
-        <v>0.8799234498292954</v>
+        <v>0.1219182970932776</v>
       </c>
       <c r="Q4">
-        <v>2633.459419104015</v>
+        <v>32.78802068821333</v>
       </c>
       <c r="R4">
-        <v>2633.459419104015</v>
+        <v>295.09218619392</v>
       </c>
       <c r="S4">
-        <v>0.03374389355174121</v>
+        <v>0.0004096691800621328</v>
       </c>
       <c r="T4">
-        <v>0.03374389355174121</v>
+        <v>0.0004096691800621328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>585.4210406666667</v>
+      </c>
+      <c r="H5">
+        <v>1756.263122</v>
+      </c>
+      <c r="I5">
+        <v>0.9531061576560254</v>
+      </c>
+      <c r="J5">
+        <v>0.9531061576560252</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.081988</v>
+      </c>
+      <c r="N5">
+        <v>3.245964</v>
+      </c>
+      <c r="O5">
+        <v>0.008303622335279906</v>
+      </c>
+      <c r="P5">
+        <v>0.008303622335279906</v>
+      </c>
+      <c r="Q5">
+        <v>633.4185409488454</v>
+      </c>
+      <c r="R5">
+        <v>5700.766868539608</v>
+      </c>
+      <c r="S5">
+        <v>0.007914233578605384</v>
+      </c>
+      <c r="T5">
+        <v>0.007914233578605384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>585.4210406666667</v>
+      </c>
+      <c r="H6">
+        <v>1756.263122</v>
+      </c>
+      <c r="I6">
+        <v>0.9531061576560254</v>
+      </c>
+      <c r="J6">
+        <v>0.9531061576560252</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>113.3348083333333</v>
+      </c>
+      <c r="N6">
+        <v>340.004425</v>
+      </c>
+      <c r="O6">
+        <v>0.8697780805714425</v>
+      </c>
+      <c r="P6">
+        <v>0.8697780805714423</v>
+      </c>
+      <c r="Q6">
+        <v>66348.58143825721</v>
+      </c>
+      <c r="R6">
+        <v>597137.2329443148</v>
+      </c>
+      <c r="S6">
+        <v>0.8289908443868803</v>
+      </c>
+      <c r="T6">
+        <v>0.8289908443868802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>585.4210406666667</v>
+      </c>
+      <c r="H7">
+        <v>1756.263122</v>
+      </c>
+      <c r="I7">
+        <v>0.9531061576560254</v>
+      </c>
+      <c r="J7">
+        <v>0.9531061576560252</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>15.886336</v>
+      </c>
+      <c r="N7">
+        <v>47.659008</v>
+      </c>
+      <c r="O7">
+        <v>0.1219182970932776</v>
+      </c>
+      <c r="P7">
+        <v>0.1219182970932776</v>
+      </c>
+      <c r="Q7">
+        <v>9300.195353500332</v>
+      </c>
+      <c r="R7">
+        <v>83701.75818150298</v>
+      </c>
+      <c r="S7">
+        <v>0.1162010796905396</v>
+      </c>
+      <c r="T7">
+        <v>0.1162010796905396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>26.739428</v>
+      </c>
+      <c r="H8">
+        <v>80.218284</v>
+      </c>
+      <c r="I8">
+        <v>0.04353364793649628</v>
+      </c>
+      <c r="J8">
+        <v>0.04353364793649627</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.081988</v>
+      </c>
+      <c r="N8">
+        <v>3.245964</v>
+      </c>
+      <c r="O8">
+        <v>0.008303622335279906</v>
+      </c>
+      <c r="P8">
+        <v>0.008303622335279906</v>
+      </c>
+      <c r="Q8">
+        <v>28.931740222864</v>
+      </c>
+      <c r="R8">
+        <v>260.385662005776</v>
+      </c>
+      <c r="S8">
+        <v>0.0003614869713417025</v>
+      </c>
+      <c r="T8">
+        <v>0.0003614869713417024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>23.2875575808045</v>
-      </c>
-      <c r="H5">
-        <v>23.2875575808045</v>
-      </c>
-      <c r="I5">
-        <v>0.03834866948742815</v>
-      </c>
-      <c r="J5">
-        <v>0.03834866948742815</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>15.4317791358531</v>
-      </c>
-      <c r="N5">
-        <v>15.4317791358531</v>
-      </c>
-      <c r="O5">
-        <v>0.1200765501707047</v>
-      </c>
-      <c r="P5">
-        <v>0.1200765501707047</v>
-      </c>
-      <c r="Q5">
-        <v>359.3684452004366</v>
-      </c>
-      <c r="R5">
-        <v>359.3684452004366</v>
-      </c>
-      <c r="S5">
-        <v>0.00460477593568694</v>
-      </c>
-      <c r="T5">
-        <v>0.00460477593568694</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>26.739428</v>
+      </c>
+      <c r="H9">
+        <v>80.218284</v>
+      </c>
+      <c r="I9">
+        <v>0.04353364793649628</v>
+      </c>
+      <c r="J9">
+        <v>0.04353364793649627</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>113.3348083333333</v>
+      </c>
+      <c r="N9">
+        <v>340.004425</v>
+      </c>
+      <c r="O9">
+        <v>0.8697780805714425</v>
+      </c>
+      <c r="P9">
+        <v>0.8697780805714423</v>
+      </c>
+      <c r="Q9">
+        <v>3030.507947322967</v>
+      </c>
+      <c r="R9">
+        <v>27274.5715259067</v>
+      </c>
+      <c r="S9">
+        <v>0.03786461274247867</v>
+      </c>
+      <c r="T9">
+        <v>0.03786461274247866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.739428</v>
+      </c>
+      <c r="H10">
+        <v>80.218284</v>
+      </c>
+      <c r="I10">
+        <v>0.04353364793649628</v>
+      </c>
+      <c r="J10">
+        <v>0.04353364793649627</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15.886336</v>
+      </c>
+      <c r="N10">
+        <v>47.659008</v>
+      </c>
+      <c r="O10">
+        <v>0.1219182970932776</v>
+      </c>
+      <c r="P10">
+        <v>0.1219182970932776</v>
+      </c>
+      <c r="Q10">
+        <v>424.791537655808</v>
+      </c>
+      <c r="R10">
+        <v>3823.123838902272</v>
+      </c>
+      <c r="S10">
+        <v>0.005307548222675905</v>
+      </c>
+      <c r="T10">
+        <v>0.005307548222675904</v>
       </c>
     </row>
   </sheetData>
